--- a/immigration-statements/immigration-statements.xlsx
+++ b/immigration-statements/immigration-statements.xlsx
@@ -89,6 +89,9 @@
     <t>Duckworth</t>
   </si>
   <si>
+    <t>subhed</t>
+  </si>
+  <si>
     <t>TammyDuckworth.jpg</t>
   </si>
   <si>
@@ -98,7 +101,7 @@
     <t>Mike</t>
   </si>
   <si>
-    <t>subhed</t>
+    <t>footnote</t>
   </si>
   <si>
     <t>Bost</t>
@@ -110,15 +113,45 @@
     <t>12th district</t>
   </si>
   <si>
-    <t>footnote</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>WBEZ</t>
+  </si>
+  <si>
+    <t>hdr_name</t>
   </si>
   <si>
     <t>mikebost.jpg</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>hdr_district</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
     <t>"Congressman Bost believes the top priority of the federal government is to keep the American people safe. It has become clear that we need a top-down review of our vetting process, and that it can be conducted in a manner that respects the rights of law-biding citizens. In the wake of terrorist attacks in Paris and elsewhere, Congressman Bost voted for bipartisan legislation to pause the intake of refugees from certain high risk locations until our screening systems are improved. Given the world we live in today, taking steps to strengthen our national security is simple common sense."</t>
   </si>
   <si>
+    <t>hdr_party</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>hdr_comment</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Cheri</t>
   </si>
   <si>
@@ -131,9 +164,6 @@
     <t>cheribustos.jpg</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>"Donald Trump’s hastily drafted executive order diminishes America's superpower role as a global example for democracy while undermining our national security by breaking the trust between American troops in the field and the foreign fighters they count on every single day," Bustos said in a statement. "There is no question that we must have secure borders and comprehensive vetting procedures for new immigrants, but Donald Trump’s action slams the door on women and children fleeing from the horror of ISIS terrorists and Russian bombing raids. I strongly urge President Trump to rescind this un-American and dangerous executive order before serious damage is done."</t>
   </si>
   <si>
@@ -143,51 +173,27 @@
     <t>Davis</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>7th district</t>
   </si>
   <si>
-    <t>WBEZ</t>
-  </si>
-  <si>
     <t>dannydavis.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">"I am outraged, and I condemn in the strongest terms, the executive order issued by President Trump aimed at the world’s most vulnerable people: refugees and asylum seekers who are fleeing the most horrific wartime conditions," &lt;a href="https://www.facebook.com/citizensfor.davis?fref=ts"&gt; wrote on Facebook.&lt;/a&gt; </t>
   </si>
   <si>
-    <t>hdr_name</t>
-  </si>
-  <si>
     <t>Rodney L.</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>13th district</t>
   </si>
   <si>
     <t>rodneydavis.jpg</t>
   </si>
   <si>
-    <t>hdr_district</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>hdr_party</t>
-  </si>
-  <si>
     <t>"This is not a ban on Muslims and anyone spouting that rhetoric is dangerous and it’s frankly insulting to me and the work my office has done to help many Muslim immigrants go through the legal channels to become citizens. I have never and will never support a religious test to enter this country. That goes against the very belief on which our nation was founded. But people are kidding themselves if they think our current ‘vetting’ processes for refugees are not leaving our country open to terrorist attacks like we’ve seen in Europe. The director of the FBI and other officials under Obama said they’re not properly vetting refugees coming to the U.S. This Executive Order, while in need of tailoring and better communication to lower departments handling the directive, simply pauses visas for refugees from seven terrorist hotspots to give them time to put more secure policies in place. There are many more predominantly Muslim countries that this order does not impact. This is similar to what the Obama administration did in 2011 when they paused visas for refugees from Iraq for six months," said in a statement.</t>
   </si>
   <si>
-    <t>Party</t>
-  </si>
-  <si>
     <t>Bill</t>
   </si>
   <si>
@@ -198,12 +204,6 @@
   </si>
   <si>
     <t>billfoster.jpg</t>
-  </si>
-  <si>
-    <t>hdr_comment</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
   <si>
     <t xml:space="preserve">"I strongly disagree with the order. It poses a grave threat to our values and our economy. Since 1975, zero people have been killed by terrorist attacks on American soil by immigrants from the seven countries affected by Trump’s Executive Order, showing just how misplaced the priorities of the Trump Administration are. History has not looked kindly on us when we’ve prevented people fleeing violence from seeking refuge in this country. Our country thrives when people from all countries come here to build better lives, start businesses, and enroll in our schools," said in a statement. </t>
@@ -440,19 +440,14 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -462,40 +457,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,9 +588,9 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -623,9 +618,9 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -653,7 +648,7 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
@@ -683,10 +678,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -715,10 +710,10 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -747,10 +742,10 @@
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -779,10 +774,10 @@
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -811,10 +806,10 @@
     </row>
     <row r="10" ht="33.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1101,141 +1096,141 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>36</v>
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
+      <c r="A8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>59</v>
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1246,19 +1241,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1269,19 +1264,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1292,19 +1287,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1315,19 +1310,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1338,19 +1333,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1361,19 +1356,19 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1384,19 +1379,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1407,19 +1402,19 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1430,19 +1425,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1453,19 +1448,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1476,19 +1471,19 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1499,19 +1494,19 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
